--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AD57FA-13AA-4711-A1B9-88A8968FD98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{02AD57FA-13AA-4711-A1B9-88A8968FD98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8CFD12D-44A0-483A-85B4-2D2B500A3994}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62AB38AD-ED88-455F-AE8A-C1240CED7A1A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Administración</t>
   </si>
@@ -127,18 +127,9 @@
     <t>Ingeniería de Sistemas</t>
   </si>
   <si>
-    <t>Ingeniería</t>
-  </si>
-  <si>
     <t>Medicina</t>
   </si>
   <si>
-    <t>Total Uniandes</t>
-  </si>
-  <si>
-    <t>total students</t>
-  </si>
-  <si>
     <t>program</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
   </si>
   <si>
     <t>women professors</t>
-  </si>
-  <si>
-    <t>total professors</t>
   </si>
   <si>
     <t>professors/doctorate</t>
@@ -229,9 +217,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,176 +533,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17B06FE-2901-4352-A2A1-5DC7C78A45F2}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
       </c>
       <c r="M1" t="s">
         <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>707</v>
+      </c>
+      <c r="C2">
+        <v>495</v>
+      </c>
+      <c r="D2">
+        <v>105</v>
+      </c>
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1202</v>
-      </c>
-      <c r="C2">
-        <v>707</v>
-      </c>
-      <c r="D2">
-        <v>495</v>
-      </c>
-      <c r="E2">
-        <v>155</v>
-      </c>
       <c r="F2">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>25.5</v>
+      </c>
+      <c r="K2">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>334</v>
+      </c>
+      <c r="C3">
+        <v>388</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>25.5</v>
-      </c>
-      <c r="M2">
-        <v>27</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>722</v>
-      </c>
-      <c r="C3">
-        <v>334</v>
-      </c>
-      <c r="D3">
-        <v>388</v>
-      </c>
-      <c r="E3">
-        <v>88</v>
-      </c>
-      <c r="F3">
-        <v>58</v>
-      </c>
       <c r="G3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>14.5</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -723,52 +698,46 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>833</v>
+        <v>191</v>
       </c>
       <c r="C4">
-        <v>191</v>
+        <v>642</v>
       </c>
       <c r="D4">
-        <v>642</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>17.5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L4">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -776,52 +745,46 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>1555</v>
+      <c r="B5">
+        <v>525</v>
       </c>
       <c r="C5">
-        <v>525</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>1.03</v>
+        <v>99</v>
       </c>
       <c r="E5">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>22</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -829,52 +792,46 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="D6">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -882,52 +839,46 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -935,211 +886,187 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>14</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="C9">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>745</v>
+        <v>294</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>451</v>
       </c>
       <c r="D10">
-        <v>451</v>
+        <v>109</v>
       </c>
       <c r="E10">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="F10">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>48.5</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="L10">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D11">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1147,52 +1074,46 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="C12">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K12">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1200,52 +1121,46 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C13">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1253,105 +1168,93 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C14">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="J14">
+        <v>24</v>
+      </c>
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="K14">
-        <v>3.5</v>
-      </c>
       <c r="L14">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>19</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1359,105 +1262,93 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>1047</v>
+      <c r="B16">
+        <v>571</v>
       </c>
       <c r="C16">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="D16">
-        <v>476</v>
+        <v>143</v>
       </c>
       <c r="E16">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="F16">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G16">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2.5</v>
+      </c>
+      <c r="J17">
         <v>10</v>
       </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1465,52 +1356,46 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>319</v>
+        <v>128</v>
       </c>
       <c r="C18">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="D18">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1518,52 +1403,46 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1571,52 +1450,46 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
         <v>13</v>
       </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
       <c r="H20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1624,105 +1497,93 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D21">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="E21">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F21">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G21">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>378</v>
+        <v>85</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="D22">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1730,105 +1591,93 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>1126</v>
+      <c r="B23">
+        <v>386</v>
       </c>
       <c r="C23">
-        <v>386</v>
+        <v>740</v>
       </c>
       <c r="D23">
-        <v>740</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="F23">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="G23">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="L23">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>1248</v>
+      <c r="B24">
+        <v>589</v>
       </c>
       <c r="C24">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="D24">
-        <v>659</v>
+        <v>77</v>
       </c>
       <c r="E24">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="F24">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="K24">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="L24">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1836,102 +1685,90 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>1029</v>
+      <c r="B25">
+        <v>672</v>
       </c>
       <c r="C25">
-        <v>672</v>
+        <v>357</v>
       </c>
       <c r="D25">
-        <v>357</v>
+        <v>105</v>
       </c>
       <c r="E25">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="G25">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="K25">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>17</v>
       </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>10</v>
       </c>
-      <c r="H26">
-        <v>17</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1940,54 +1777,48 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="C27">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D27">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -1995,317 +1826,281 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>530</v>
+        <v>259</v>
       </c>
       <c r="C28">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D28">
-        <v>271</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>520</v>
+      </c>
+      <c r="C29">
+        <v>551</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>3.5</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>330</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
         <v>9</v>
       </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>829</v>
-      </c>
-      <c r="C29">
-        <v>520</v>
-      </c>
-      <c r="D29">
-        <v>551</v>
-      </c>
-      <c r="E29">
-        <v>46</v>
-      </c>
-      <c r="F29">
-        <v>38</v>
-      </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>26</v>
-      </c>
-      <c r="I29">
-        <v>21</v>
-      </c>
-      <c r="J29">
-        <v>6</v>
-      </c>
-      <c r="K29">
-        <v>3.5</v>
-      </c>
-      <c r="L29">
-        <v>12</v>
-      </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>4</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>410</v>
-      </c>
-      <c r="C30">
-        <v>330</v>
-      </c>
-      <c r="D30">
-        <v>80</v>
-      </c>
-      <c r="E30">
-        <v>21</v>
-      </c>
-      <c r="F30">
-        <v>19</v>
-      </c>
-      <c r="G30">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>2</v>
       </c>
-      <c r="H30">
-        <v>16</v>
-      </c>
-      <c r="I30">
-        <v>17</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1">
-        <v>1286</v>
+      <c r="B31">
+        <v>779</v>
       </c>
       <c r="C31">
-        <v>779</v>
+        <v>507</v>
       </c>
       <c r="D31">
-        <v>507</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>9</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32">
-        <v>624</v>
+        <v>532</v>
       </c>
       <c r="C32">
-        <v>532</v>
+        <v>92</v>
       </c>
       <c r="D32">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>248</v>
+      </c>
+      <c r="C33">
+        <v>247</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
         <v>12</v>
       </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>10</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>495</v>
-      </c>
-      <c r="C33">
-        <v>248</v>
-      </c>
-      <c r="D33">
-        <v>247</v>
-      </c>
-      <c r="E33">
-        <v>15</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
       <c r="H33">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2313,223 +2108,99 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34">
-        <v>722</v>
+        <v>617</v>
       </c>
       <c r="C34">
-        <v>617</v>
+        <v>105</v>
       </c>
       <c r="D34">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="E34">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F34">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G34">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
         <v>14</v>
       </c>
-      <c r="H34">
-        <v>31</v>
-      </c>
-      <c r="I34">
-        <v>23</v>
-      </c>
-      <c r="J34">
-        <v>8</v>
-      </c>
       <c r="K34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>6</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="1">
-        <v>4896</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3285</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1611</v>
-      </c>
-      <c r="E35" s="1">
-        <v>259</v>
+      <c r="B35">
+        <v>355</v>
+      </c>
+      <c r="C35">
+        <v>492</v>
+      </c>
+      <c r="D35">
+        <v>158</v>
+      </c>
+      <c r="E35">
+        <v>105</v>
       </c>
       <c r="F35">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="G35">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K35">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="L35">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>23</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36">
-        <v>847</v>
-      </c>
-      <c r="C36">
-        <v>355</v>
-      </c>
-      <c r="D36">
-        <v>492</v>
-      </c>
-      <c r="E36">
-        <v>263</v>
-      </c>
-      <c r="F36">
-        <v>158</v>
-      </c>
-      <c r="G36">
-        <v>105</v>
-      </c>
-      <c r="H36">
-        <v>20</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>11</v>
-      </c>
-      <c r="M36">
-        <v>6.5</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1">
-        <v>14243</v>
-      </c>
-      <c r="C37" s="1">
-        <v>7611</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6632</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1832</v>
-      </c>
-      <c r="F37">
-        <v>1153</v>
-      </c>
-      <c r="G37">
-        <v>679</v>
-      </c>
-      <c r="H37">
-        <v>559</v>
-      </c>
-      <c r="I37">
-        <v>164</v>
-      </c>
-      <c r="J37">
-        <v>14</v>
-      </c>
-      <c r="K37">
-        <v>72.5</v>
-      </c>
-      <c r="L37">
-        <v>390.7</v>
-      </c>
-      <c r="M37">
-        <v>174</v>
-      </c>
-      <c r="N37">
-        <v>36</v>
-      </c>
-      <c r="O37">
-        <v>24</v>
-      </c>
-      <c r="P37">
-        <v>2</v>
-      </c>
-      <c r="Q37">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
